--- a/biology/Zoologie/Baltimore_(papillon)/Baltimore_(papillon).xlsx
+++ b/biology/Zoologie/Baltimore_(papillon)/Baltimore_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphydryas phaeton
 Le Baltimore (Euphydryas phaeton) est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Nymphalinae et au genre Euphydryas.
@@ -512,15 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euphydryas phaeton a été nommé par Drury en 1773.
-Synonymes : Papilio phaeton Drury, [1773][1].
-Noms vernaculaires
-Le Baltimore se nomme aussi en anglais Baltimore[1].
-Sous-espèces
-Euphydryas phaeton phaeton dans le Maryland et le Maine.
-Euphydryas phaeton ozarkae Masters, 1968 ;</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphydryas phaeton a été nommé par Drury en 1773.
+Synonymes : Papilio phaeton Drury, .
+</t>
         </is>
       </c>
     </row>
@@ -545,16 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Baltimore est un papillon de couleur variable, marron à noir orné d'une bande submarginale de damiers jaune orange à rouge, puis aux antérieures de plusieurs lignes  de petits damiers blancs et quelques damiers orange dans la partie basale, alors qu'aux postérieures ce sont seulement une ligne de chevrons blancs et une ligne de damiers blancs qui complètent l'ornementation de la bande submarginale de damiers orange.
-Le revers présente la même ornementation en plus clair avec une  bande submarginale de damiers orange, plusieurs lignes de damiers blancs et des damiers orange dans l'aire basale.
-Il a une envergure qui varie de 45 à 70 mm[2],[3].
-Chenille
-Elle est noire annelée d'orange, ornée d'épines noires[3].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Baltimore se nomme aussi en anglais Baltimore.
 </t>
         </is>
       </c>
@@ -580,16 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'imago vole en une génération en mai juin dans le sud de son aire, entre juin et août dans le nord[4].
-La chenille hiberne au quatrième stade, sur le sol dans des feuilles mortes[4].
-Plantes hôtes
-Les plantes hôtes de la chenille sont avant l'hivernage  Chelone glabra, Penstemon hirsutus, Aureolaria, Plantago lanceolata et après l'hivernage elles mangent aussi Fraxinus americana, Viburnum recognitum, Pedicularis canadensis, Lonicera japonica, Gerardia grandiflora Gerardia pedicularia[1],.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euphydryas phaeton phaeton dans le Maryland et le Maine.
+Euphydryas phaeton ozarkae Masters, 1968 ;</t>
         </is>
       </c>
     </row>
@@ -614,16 +629,231 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Baltimore est un papillon de couleur variable, marron à noir orné d'une bande submarginale de damiers jaune orange à rouge, puis aux antérieures de plusieurs lignes  de petits damiers blancs et quelques damiers orange dans la partie basale, alors qu'aux postérieures ce sont seulement une ligne de chevrons blancs et une ligne de damiers blancs qui complètent l'ornementation de la bande submarginale de damiers orange.
+Le revers présente la même ornementation en plus clair avec une  bande submarginale de damiers orange, plusieurs lignes de damiers blancs et des damiers orange dans l'aire basale.
+Il a une envergure qui varie de 45 à 70 mm,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Baltimore_(papillon)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baltimore_(papillon)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est noire annelée d'orange, ornée d'épines noires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Baltimore_(papillon)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baltimore_(papillon)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago vole en une génération en mai juin dans le sud de son aire, entre juin et août dans le nord.
+La chenille hiberne au quatrième stade, sur le sol dans des feuilles mortes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Baltimore_(papillon)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baltimore_(papillon)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont avant l'hivernage  Chelone glabra, Penstemon hirsutus, Aureolaria, Plantago lanceolata et après l'hivernage elles mangent aussi Fraxinus americana, Viburnum recognitum, Pedicularis canadensis, Lonicera japonica, Gerardia grandiflora Gerardia pedicularia,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Baltimore_(papillon)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baltimore_(papillon)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Baltimore est présent dans l'ouest de l'Amérique du Nord, au Canada de la Nouvelle-Écosse au sud du Manitoba et dans tout l'est des USA, jusqu'au nord du Mississippi et le nord-est de l'Oklahoma. Il existe de petits isolats au Texas et au Nebraska[2].
-Biotope
-Il réside dans les prés humides[3].
-Protection
-Pas de statut de protection particulier[2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Baltimore est présent dans l'ouest de l'Amérique du Nord, au Canada de la Nouvelle-Écosse au sud du Manitoba et dans tout l'est des USA, jusqu'au nord du Mississippi et le nord-est de l'Oklahoma. Il existe de petits isolats au Texas et au Nebraska.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Baltimore_(papillon)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baltimore_(papillon)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les prés humides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Baltimore_(papillon)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baltimore_(papillon)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
